--- a/Input_files/Master_executors/Master_executor.xlsx
+++ b/Input_files/Master_executors/Master_executor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Rohit\Automation\Pride\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF37AC0-05EE-4981-88A1-9B7E3BA8D0F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97892AB-FB75-493B-AB53-25C398897136}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
   <si>
     <t>Runmode</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>TC27_DEMO_Myacc</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -746,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -832,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -852,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
@@ -872,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>3</v>
@@ -892,7 +895,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -912,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>3</v>
@@ -932,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
@@ -952,7 +955,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>3</v>
@@ -972,7 +975,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -992,7 +995,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -1012,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
@@ -1032,7 +1035,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
@@ -1052,7 +1055,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -1072,7 +1075,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
@@ -1092,7 +1095,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>3</v>
@@ -1112,7 +1115,7 @@
         <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>3</v>
@@ -1132,7 +1135,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>3</v>
@@ -1152,7 +1155,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>3</v>
@@ -1172,7 +1175,7 @@
         <v>44</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -1192,7 +1195,7 @@
         <v>70</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>3</v>
@@ -1212,7 +1215,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>3</v>
@@ -1232,7 +1235,7 @@
         <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>3</v>
@@ -1252,7 +1255,7 @@
         <v>72</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>3</v>
@@ -1272,7 +1275,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>3</v>
@@ -1292,7 +1295,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>3</v>
@@ -1312,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>3</v>
